--- a/2025-10-15/15_fixtures.xlsx
+++ b/2025-10-15/15_fixtures.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:L11"/>
+  <dimension ref="A1:L12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -488,27 +488,32 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Club Athletico Paranaense  - Avaí FC: 1:1</t>
+          <t>Jamaica ✓ - Bermuda: 4:0</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>1.81</v>
+        <v>3.62</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Club Athletico Paranaense</t>
+          <t>Jamaica</t>
         </is>
       </c>
       <c r="E2" t="n">
-        <v>2.5</v>
+        <v>4.5</v>
       </c>
       <c r="F2" t="inlineStr">
         <is>
           <t>71%</t>
         </is>
       </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>✓</t>
+        </is>
+      </c>
       <c r="H2" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="I2" t="b">
         <v>1</v>
@@ -522,19 +527,19 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Jamaica ✓ - Bermuda: 4:0</t>
+          <t>FBC Melgar ✓ - Alianza Universidad: 2:1</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>3.62</v>
+        <v>1.74</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Jamaica</t>
+          <t>FBC Melgar</t>
         </is>
       </c>
       <c r="E3" t="n">
-        <v>4.5</v>
+        <v>2.5</v>
       </c>
       <c r="F3" t="inlineStr">
         <is>
@@ -547,10 +552,10 @@
         </is>
       </c>
       <c r="H3" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I3" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -561,15 +566,15 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>FBC Melgar ✓ - Alianza Universidad: 2:1</t>
+          <t>Puerto Rico - Argentina ✓: 0:6</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>1.74</v>
+        <v>1.49</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>FBC Melgar</t>
+          <t>Argentina</t>
         </is>
       </c>
       <c r="E4" t="n">
@@ -577,7 +582,7 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>70%</t>
+          <t>68%</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
@@ -586,7 +591,7 @@
         </is>
       </c>
       <c r="H4" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="I4" t="b">
         <v>0</v>
@@ -600,7 +605,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Sociedade Esportiva Palmeiras  - Red Bull Bragantino: 23:00</t>
+          <t>Sociedade Esportiva Palmeiras ✓ - Red Bull Bragantino: 5:1</t>
         </is>
       </c>
       <c r="C5" t="n">
@@ -619,8 +624,13 @@
           <t>68%</t>
         </is>
       </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>✓</t>
+        </is>
+      </c>
       <c r="H5" t="n">
-        <v>23</v>
+        <v>6</v>
       </c>
       <c r="I5" t="b">
         <v>0</v>
@@ -634,15 +644,15 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>United States ✓ - Australia: 2:1</t>
+          <t>Club Athletico Paranaense  - Avaí FC: 1:1</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>1.34</v>
+        <v>1.81</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>United States</t>
+          <t>Club Athletico Paranaense</t>
         </is>
       </c>
       <c r="E6" t="n">
@@ -650,19 +660,14 @@
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>67%</t>
-        </is>
-      </c>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>✓</t>
+          <t>65%</t>
         </is>
       </c>
       <c r="H6" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I6" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="7">
@@ -707,15 +712,15 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Puerto Rico - Argentina ✓: 0:6</t>
+          <t>Atlético Nacional ✓ - Deportivo Cali: 2:1</t>
         </is>
       </c>
       <c r="C8" t="n">
-        <v>1.49</v>
+        <v>1.36</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>Argentina</t>
+          <t>Atlético Nacional</t>
         </is>
       </c>
       <c r="E8" t="n">
@@ -732,31 +737,70 @@
         </is>
       </c>
       <c r="H8" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="I8" t="b">
         <v>0</v>
       </c>
     </row>
     <row r="9">
-      <c r="K9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>Wed Oct 15</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>United States ✓ - Australia: 2:1</t>
+        </is>
+      </c>
+      <c r="C9" t="n">
+        <v>1.34</v>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>United States</t>
+        </is>
+      </c>
+      <c r="E9" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>58%</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>✓</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>3</v>
+      </c>
+      <c r="I9" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="K10">
         <f>COUNTIF(I:I,TRUE)</f>
         <v/>
       </c>
-      <c r="L9">
-        <f>(K9/K11)*100</f>
+      <c r="L10">
+        <f>(K10/K12)*100</f>
         <v/>
       </c>
     </row>
-    <row r="10">
-      <c r="K10">
+    <row r="11">
+      <c r="K11">
         <f>COUNTIF(I:I,FALSE)</f>
         <v/>
       </c>
     </row>
-    <row r="11">
-      <c r="K11">
-        <f>K9+K10</f>
+    <row r="12">
+      <c r="K12">
+        <f>K10+K11</f>
         <v/>
       </c>
     </row>
